--- a/public/UploadsImport/dummy_baru - Copy.xlsx
+++ b/public/UploadsImport/dummy_baru - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arbi0\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28DCBB5-FEBC-48A9-A3E6-BE4B70AE8C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DCEFA-7EC5-41E4-B133-6F77D8540F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15DD3F3D-8476-4FAD-ACBC-BB4AEE0866A7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>npk</t>
   </si>
@@ -57,15 +57,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>P79896</t>
-  </si>
-  <si>
-    <t>TAUPAN NUGROHO</t>
-  </si>
-  <si>
-    <t>taupan.nugroho@pegadaian.co.id</t>
-  </si>
-  <si>
     <t>BATCH 1</t>
   </si>
   <si>
@@ -75,34 +66,34 @@
     <t>s</t>
   </si>
   <si>
-    <t>atasan</t>
-  </si>
-  <si>
-    <t>P83071</t>
-  </si>
-  <si>
-    <t>NOOR AGHFA CANDRA RAYA</t>
-  </si>
-  <si>
-    <t>noor.raya@pegadaian.co.id</t>
-  </si>
-  <si>
-    <t>P81185</t>
-  </si>
-  <si>
-    <t>NI NYOMAN SAWITRI</t>
-  </si>
-  <si>
-    <t>nyoman.sawitri@pegadaian.co.id</t>
-  </si>
-  <si>
-    <t>P80980</t>
-  </si>
-  <si>
-    <t>ZAHROH WARDATI</t>
-  </si>
-  <si>
-    <t>zahroh.wardati@pegadaian.co.id</t>
+    <t>bawahan</t>
+  </si>
+  <si>
+    <t>P81354</t>
+  </si>
+  <si>
+    <t>WENDA PRIHATININGSIH</t>
+  </si>
+  <si>
+    <t>wenda.prihatiningsih@pegadaian.co.id</t>
+  </si>
+  <si>
+    <t>P89458</t>
+  </si>
+  <si>
+    <t>YUNIASARI DWI METIARTI</t>
+  </si>
+  <si>
+    <t>yuniasari.metiarti@pegadaian.co.id</t>
+  </si>
+  <si>
+    <t>P85311</t>
+  </si>
+  <si>
+    <t>ERNI FATMAWATI</t>
+  </si>
+  <si>
+    <t>erni.fatmawati@pegadaian.co.id</t>
   </si>
 </sst>
 </file>
@@ -164,14 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -494,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D4F175-6F56-4D9B-A4C0-0CB234902815}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,139 +493,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6285731061826</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
-        <v>6285731061826</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
-        <v>6285731061826</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3">
+        <v>628988673513</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>6285731061826</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5">
-        <v>6285731061826</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/UploadsImport/dummy_baru - Copy.xlsx
+++ b/public/UploadsImport/dummy_baru - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arbi0\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DCEFA-7EC5-41E4-B133-6F77D8540F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252B3BC-605C-4BD1-B6F1-509C21A5E63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{15DD3F3D-8476-4FAD-ACBC-BB4AEE0866A7}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{15DD3F3D-8476-4FAD-ACBC-BB4AEE0866A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>npk</t>
   </si>
@@ -67,24 +67,6 @@
   </si>
   <si>
     <t>bawahan</t>
-  </si>
-  <si>
-    <t>P81354</t>
-  </si>
-  <si>
-    <t>WENDA PRIHATININGSIH</t>
-  </si>
-  <si>
-    <t>wenda.prihatiningsih@pegadaian.co.id</t>
-  </si>
-  <si>
-    <t>P89458</t>
-  </si>
-  <si>
-    <t>YUNIASARI DWI METIARTI</t>
-  </si>
-  <si>
-    <t>yuniasari.metiarti@pegadaian.co.id</t>
   </si>
   <si>
     <t>P85311</t>
@@ -481,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D4F175-6F56-4D9B-A4C0-0CB234902815}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,58 +526,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
-        <v>628988673513</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6285731061826</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
